--- a/TBEA/BusinessPerformance/Documentation/市场信息化/输变电1-12月投标台帐(修改后).xlsx
+++ b/TBEA/BusinessPerformance/Documentation/市场信息化/输变电1-12月投标台帐(修改后).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AB$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$1</definedName>
     <definedName name="行业区域划分" localSheetId="0">[1]Sheet1!$B$1:$B$11</definedName>
     <definedName name="行业所属系统" localSheetId="0">[1]Sheet1!$C$1:$C$33</definedName>
     <definedName name="片区" localSheetId="0">[1]Sheet1!$A$1:$A$18</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>投标编号</t>
   </si>
@@ -148,81 +148,8 @@
     <t>变压器厂</t>
   </si>
   <si>
-    <t>失标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>变压器厂</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>国网</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>国网公司</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>沈变</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新疆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>包1</t>
-  </si>
-  <si>
-    <t>新疆电力公司</t>
-  </si>
-  <si>
-    <t>新疆办</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SB-1411</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-0187</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>西电</t>
-  </si>
-  <si>
-    <t>详见国网六批总结</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴楚-喀什750千伏输变电工程巴楚75</t>
-  </si>
-  <si>
-    <t>BKD-70000/800</t>
   </si>
   <si>
     <t>单位</t>
@@ -240,11 +167,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,29 +210,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -319,12 +223,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -373,7 +271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -396,60 +294,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -459,30 +409,33 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="30">
@@ -517,34 +470,14 @@
     <cellStyle name="常规 6 10" xfId="21"/>
     <cellStyle name="常规 9" xfId="25"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -957,7 +890,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -999,7 +932,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1034,7 +967,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1243,23 +1176,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1267,19 +1200,19 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>51</v>
+      <c r="D1" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1312,7 +1245,7 @@
       <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -1332,154 +1265,76 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>1</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="11">
         <v>41642</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>220</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="3">
         <v>1</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="3">
         <v>150000</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4" t="s">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4" t="s">
+      <c r="S2" s="3"/>
+      <c r="T2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="3">
         <v>1</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="3" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="6">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5">
-        <v>41973</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="4">
-        <v>800</v>
-      </c>
-      <c r="O3" s="8">
-        <v>6</v>
-      </c>
-      <c r="P3" s="7">
-        <v>420000</v>
-      </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="U3" s="4">
-        <v>12</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB1"/>
+  <autoFilter ref="A1:X1"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="R3">
-    <cfRule type="cellIs" dxfId="1" priority="12" stopIfTrue="1" operator="equal">
-      <formula>"特变电工沈阳变压器集团有限公司"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3">
-    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
